--- a/HP/zj/202105.xlsx
+++ b/HP/zj/202105.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>2021年05月份旅差费</t>
   </si>
@@ -60,6 +60,24 @@
   </si>
   <si>
     <t>hp笔记本换电池</t>
+  </si>
+  <si>
+    <t>WO-013882211</t>
+  </si>
+  <si>
+    <t>2021.05.13</t>
+  </si>
+  <si>
+    <t>公司-电白区罗坑镇中心小学-公司</t>
+  </si>
+  <si>
+    <t>温亚庆</t>
+  </si>
+  <si>
+    <t>55*2</t>
+  </si>
+  <si>
+    <t>HP台式机换主板</t>
   </si>
   <si>
     <t>、</t>
@@ -707,7 +725,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1193,28 +1211,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1566,13 +1569,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
@@ -1594,8 +1591,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1612,7 +1609,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1643,7 +1640,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="28.499565" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="69" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="72" t="s">
@@ -1658,25 +1655,41 @@
       <c r="F6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="122" t="s">
+      <c r="G6" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="11">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="14"/>
+      <c r="B7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="121" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="11">
+        <v>110</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="38.249416" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="14"/>
@@ -1861,7 +1874,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="11"/>
@@ -1873,11 +1886,11 @@
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="18" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(H6:H26)</f>
-        <v>30</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202105.xlsx
+++ b/HP/zj/202105.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>2021年05月份旅差费</t>
   </si>
@@ -77,7 +77,16 @@
     <t>55*2</t>
   </si>
   <si>
-    <t>HP台式机换主板</t>
+    <t>HP台式机换主板OK,另一台换电源不行，拿回公司;另一台未检测，拿回公司检测。因HP每次上门最多只能报修两单。剩余一台机要再报一次。</t>
+  </si>
+  <si>
+    <t>WO-013882151</t>
+  </si>
+  <si>
+    <t>2021.05.17</t>
+  </si>
+  <si>
+    <t>换电源不行那台HP台式机换主板OK，另一台机CPU物损，不保修。</t>
   </si>
   <si>
     <t>、</t>
@@ -725,7 +734,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1211,13 +1220,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1569,8 +1593,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="182" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
@@ -1592,7 +1619,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I8" activeCellId="0" sqref="I8"/>
+      <selection activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1665,14 +1692,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="64.499016" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="121" t="s">
+      <c r="D7" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="14" t="s">
@@ -1685,21 +1712,37 @@
         <v>14</v>
       </c>
       <c r="H7" s="11">
-        <v>110</v>
-      </c>
-      <c r="I7" s="14" t="s">
+        <v>110.0</v>
+      </c>
+      <c r="I7" s="122" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="38.249416" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="14"/>
+    <row r="8" spans="1:9" ht="36.74944" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="121" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="11">
+        <v>110.0</v>
+      </c>
+      <c r="I8" s="122" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="14"/>
@@ -1874,7 +1917,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="11"/>
@@ -1886,11 +1929,11 @@
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(H6:H26)</f>
-        <v>140</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202105.xlsx
+++ b/HP/zj/202105.xlsx
@@ -62,7 +62,25 @@
     <t>hp笔记本换电池</t>
   </si>
   <si>
-    <t>WO-013882211</t>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">WO-013882211
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">WO-013882151+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>2021.05.13</t>
@@ -80,10 +98,28 @@
     <t>HP台式机换主板OK,另一台换电源不行，拿回公司;另一台未检测，拿回公司检测。因HP每次上门最多只能报修两单。剩余一台机要再报一次。</t>
   </si>
   <si>
-    <t>WO-013882151</t>
-  </si>
-  <si>
-    <t>2021.05.17</t>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">WO-013882211
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">WO-013882151+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.05.19</t>
   </si>
   <si>
     <t>换电源不行那台HP台式机换主板OK，另一台机CPU物损，不保修。</t>
@@ -1618,8 +1654,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I7" activeCellId="0" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1714,7 +1750,7 @@
       <c r="H7" s="11">
         <v>110.0</v>
       </c>
-      <c r="I7" s="122" t="s">
+      <c r="I7" s="14" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1740,7 +1776,7 @@
       <c r="H8" s="11">
         <v>110.0</v>
       </c>
-      <c r="I8" s="122" t="s">
+      <c r="I8" s="14" t="s">
         <v>24</v>
       </c>
     </row>

--- a/HP/zj/202105.xlsx
+++ b/HP/zj/202105.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>2021年05月份旅差费</t>
   </si>
@@ -125,6 +125,24 @@
     <t>换电源不行那台HP台式机换主板OK，另一台机CPU物损，不保修。</t>
   </si>
   <si>
+    <t>WO-013955457</t>
+  </si>
+  <si>
+    <t>2021.05.21</t>
+  </si>
+  <si>
+    <t>公司-高州市文明中路20号-公司</t>
+  </si>
+  <si>
+    <t>蔡女士</t>
+  </si>
+  <si>
+    <t>35*2</t>
+  </si>
+  <si>
+    <t>hp笔记本换电池，发现物损，不保修。</t>
+  </si>
+  <si>
     <t>、</t>
   </si>
   <si>
@@ -770,7 +788,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1256,28 +1274,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1629,10 +1632,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
@@ -1654,8 +1654,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1758,7 +1758,7 @@
       <c r="B8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="121" t="s">
+      <c r="C8" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="11" t="s">
@@ -1781,14 +1781,30 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="14"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="14"/>
+      <c r="B9" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="11">
+        <v>70</v>
+      </c>
+      <c r="I9" s="121" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="11"/>
@@ -1953,7 +1969,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="11"/>
@@ -1965,11 +1981,11 @@
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="18" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(H6:H26)</f>
-        <v>250</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202105.xlsx
+++ b/HP/zj/202105.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>2021年05月份旅差费</t>
   </si>
@@ -143,6 +143,41 @@
     <t>hp笔记本换电池，发现物损，不保修。</t>
   </si>
   <si>
+    <t>WO-014032204</t>
+  </si>
+  <si>
+    <t>2021.05.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 公司-高州市光明路469号-高州一中附属实验中学-公司</t>
+  </si>
+  <si>
+    <t>1、邓伟进 2、邓老师</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>36*2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、HP台式机换HDD;2、取一台坏HP主机回公司</t>
+  </si>
+  <si>
     <t>、</t>
   </si>
   <si>
@@ -788,7 +823,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1274,13 +1309,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1633,6 +1698,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="38" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
@@ -1654,8 +1725,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="I26" activeCellId="0" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1781,7 +1852,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -1800,21 +1871,37 @@
         <v>14</v>
       </c>
       <c r="H9" s="11">
-        <v>70</v>
-      </c>
-      <c r="I9" s="121" t="s">
+        <v>70.0</v>
+      </c>
+      <c r="I9" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="14"/>
+      <c r="B10" s="121" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="121" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="122" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="11">
+        <v>72</v>
+      </c>
+      <c r="I10" s="123" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="37.499428" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="14"/>
@@ -1969,7 +2056,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="11"/>
@@ -1981,11 +2068,11 @@
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="18" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(H6:H26)</f>
-        <v>320</v>
+        <v>392</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
